--- a/biology/Botanique/Uvulaire_perfoliée/Uvulaire_perfoliée.xlsx
+++ b/biology/Botanique/Uvulaire_perfoliée/Uvulaire_perfoliée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Uvulaire_perfoli%C3%A9e</t>
+          <t>Uvulaire_perfoliée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uvularia perfoliata est une espèce de plante vivace rhizomateuse traçante s'étalant lentement. Elle appartient à la famille des Liliaceae selon la classification classique. La classification phylogénétique la place dans la famille des Colchicaceae.
 Les tiges sont parfois divisées. Les feuilles sont longues de 5 à 10 cm, inclinées, ovales lancéolées, perfoliées. Leur couleur est vert moyen glabre.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Uvulaire_perfoli%C3%A9e</t>
+          <t>Uvulaire_perfoliée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Floraison
-En mai. Fleurs de 2 à 4 cm de long, solitaires ou par paires, pendantes, tubulaires campanulées.
-Couleur
-jaune pâle.
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai. Fleurs de 2 à 4 cm de long, solitaires ou par paires, pendantes, tubulaires campanulées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Uvulaire_perfoliée</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uvulaire_perfoli%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Couleur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jaune pâle.
 Les tépales sont libres, légèrement tordus et à extrémité étalée. Comme U. grandiflora, les étamines sont plus courtes que les styles.
-Taille
-60 cm de haut pour un diamètre de 30 cm environ.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Uvulaire_perfoliée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uvulaire_perfoli%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">60 cm de haut pour un diamètre de 30 cm environ.
 </t>
         </is>
       </c>
